--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/DISTRICT_OF_COLUMBIA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/DISTRICT_OF_COLUMBIA_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C8">
@@ -579,7 +579,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C30">
@@ -877,7 +877,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C37">
@@ -903,7 +903,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C39">
@@ -916,7 +916,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C40">
@@ -942,7 +942,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C42">
@@ -955,7 +955,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C43">
@@ -968,7 +968,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C44">
@@ -1046,7 +1046,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C50">
@@ -1173,7 +1173,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1388,7 +1388,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C74">
@@ -1458,7 +1458,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C79">
@@ -1510,7 +1510,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C83">
@@ -1536,7 +1536,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C85">
@@ -1549,7 +1549,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C86">
@@ -1857,7 +1857,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C109">
@@ -1966,7 +1966,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C115">
@@ -1974,41 +1974,6 @@
       </c>
       <c r="D115">
         <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/DISTRICT_OF_COLUMBIA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/DISTRICT_OF_COLUMBIA_2024.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -748,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -761,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Otumba</t>
@@ -774,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -787,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -800,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -813,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -857,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -901,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Alcozauca De Guerrero</t>
@@ -914,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Atenango Del Río</t>
@@ -927,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -940,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -953,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -966,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -979,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -992,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -1005,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Juchitán</t>
@@ -1018,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -1031,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tlacoapa</t>
@@ -1044,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -1057,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Zitlala</t>
@@ -1070,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1101,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -1114,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1145,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1158,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1189,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -1202,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1215,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1228,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1259,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1272,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -1285,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1316,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1347,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>San Pablo Huitzo</t>
@@ -1360,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>San Pedro Huamelula</t>
@@ -1373,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Santa María Huazolotitlán</t>
@@ -1386,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Tezoatlán De Segura Y Luna</t>
@@ -1399,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1430,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>General Felipe Ángeles</t>
@@ -1443,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -1456,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -1469,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1482,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -1495,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -1508,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Tepanco De López</t>
@@ -1521,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -1534,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -1547,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Xayacatlán De Bravo</t>
@@ -1560,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -1573,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1604,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1635,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -1648,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -1661,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1692,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1723,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1754,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1785,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -1798,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1829,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Natívitas</t>
@@ -1842,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1873,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -1886,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Amatlán De Los Reyes</t>
@@ -1899,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -1912,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -1925,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -1938,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -1951,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
